--- a/Histology/Top 500 DEGs.xlsx
+++ b/Histology/Top 500 DEGs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d213404cdfde336e/Documenten/BBS Year 3/BBS3004 Project/GitHub/BBS3004---P18/Histology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{7CB311F8-9BB1-4E95-A3E1-96B7639F5F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94144199-FBB6-4DE6-837F-BEF39FA0D573}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{7CB311F8-9BB1-4E95-A3E1-96B7639F5F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D00D39-0435-46F7-84DA-74920F4E595E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EA5696B-1238-498F-A206-C191ADA7812F}"/>
+    <workbookView minimized="1" xWindow="5364" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{7EA5696B-1238-498F-A206-C191ADA7812F}"/>
   </bookViews>
   <sheets>
     <sheet name="Malignant vs. Non-malignant" sheetId="1" r:id="rId1"/>
@@ -1627,6 +1627,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
@@ -1946,11 +1950,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AB6074-0E04-42BF-ADD6-0C83844100A1}">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="J495" sqref="J495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -13484,11 +13491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF17BF34-A259-479B-984F-5F8FE716A8F5}">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A501" sqref="A2:A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
